--- a/data/trans_orig/P14A17-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A17-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7376F9A-5B5D-4953-AD72-A713A2AE22FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7CAC419-2659-4305-B2F7-F1C1270C2767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{62A052B8-5ADF-487D-B1A5-5C9C1B65656D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D79C0A9C-C5F6-4544-B5AC-B673FE926780}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="168">
   <si>
     <t>Población que recibe medicación o terapia por anemia en 2012 (Tasa respuesta: 1,6%)</t>
   </si>
@@ -111,16 +111,16 @@
     <t>54,8%</t>
   </si>
   <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
   </si>
   <si>
     <t>50,38%</t>
   </si>
   <si>
-    <t>20,85%</t>
+    <t>21,91%</t>
   </si>
   <si>
     <t>80,88%</t>
@@ -132,10 +132,10 @@
     <t>45,2%</t>
   </si>
   <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
   </si>
   <si>
     <t>49,62%</t>
@@ -144,7 +144,7 @@
     <t>19,12%</t>
   </si>
   <si>
-    <t>79,15%</t>
+    <t>78,09%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -153,25 +153,25 @@
     <t>95,84%</t>
   </si>
   <si>
-    <t>82,91%</t>
+    <t>82,95%</t>
   </si>
   <si>
     <t>95,99%</t>
   </si>
   <si>
-    <t>80,31%</t>
+    <t>80,8%</t>
   </si>
   <si>
     <t>4,16%</t>
   </si>
   <si>
-    <t>17,09%</t>
+    <t>17,05%</t>
   </si>
   <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>19,69%</t>
+    <t>19,2%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -183,13 +183,13 @@
     <t>86,63%</t>
   </si>
   <si>
-    <t>62,45%</t>
+    <t>58,47%</t>
   </si>
   <si>
     <t>88,81%</t>
   </si>
   <si>
-    <t>60,77%</t>
+    <t>66,26%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -198,13 +198,13 @@
     <t>13,37%</t>
   </si>
   <si>
-    <t>37,55%</t>
+    <t>41,53%</t>
   </si>
   <si>
     <t>11,19%</t>
   </si>
   <si>
-    <t>39,23%</t>
+    <t>33,74%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -216,19 +216,19 @@
     <t>73,84%</t>
   </si>
   <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
   </si>
   <si>
     <t>77,71%</t>
   </si>
   <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -237,19 +237,19 @@
     <t>26,16%</t>
   </si>
   <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
   </si>
   <si>
     <t>22,29%</t>
   </si>
   <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -261,7 +261,7 @@
     <t>68,71%</t>
   </si>
   <si>
-    <t>49,17%</t>
+    <t>49,32%</t>
   </si>
   <si>
     <t>84,94%</t>
@@ -270,10 +270,10 @@
     <t>76,22%</t>
   </si>
   <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -285,58 +285,64 @@
     <t>15,06%</t>
   </si>
   <si>
-    <t>50,83%</t>
+    <t>50,68%</t>
   </si>
   <si>
     <t>23,78%</t>
   </si>
   <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
   </si>
   <si>
     <t>93,74%</t>
   </si>
   <si>
-    <t>74,08%</t>
+    <t>74,33%</t>
   </si>
   <si>
     <t>78,81%</t>
   </si>
   <si>
-    <t>69,03%</t>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
   </si>
   <si>
     <t>80,87%</t>
   </si>
   <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
   </si>
   <si>
     <t>6,26%</t>
   </si>
   <si>
-    <t>25,92%</t>
+    <t>25,67%</t>
   </si>
   <si>
     <t>21,19%</t>
   </si>
   <si>
-    <t>30,97%</t>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
   </si>
   <si>
     <t>19,13%</t>
   </si>
   <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -354,55 +360,52 @@
     <t>56,1%</t>
   </si>
   <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
   </si>
   <si>
     <t>59,89%</t>
   </si>
   <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
   </si>
   <si>
     <t>43,9%</t>
   </si>
   <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
   </si>
   <si>
     <t>40,11%</t>
   </si>
   <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
   </si>
   <si>
     <t>79,89%</t>
   </si>
   <si>
-    <t>52,86%</t>
+    <t>52,11%</t>
   </si>
   <si>
     <t>93,63%</t>
   </si>
   <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
   </si>
   <si>
     <t>20,11%</t>
@@ -411,40 +414,37 @@
     <t>6,37%</t>
   </si>
   <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
   </si>
   <si>
     <t>83,92%</t>
   </si>
   <si>
-    <t>57,83%</t>
+    <t>52,52%</t>
   </si>
   <si>
     <t>86,75%</t>
   </si>
   <si>
-    <t>61,48%</t>
+    <t>60,64%</t>
   </si>
   <si>
     <t>16,08%</t>
   </si>
   <si>
-    <t>42,17%</t>
+    <t>47,48%</t>
   </si>
   <si>
     <t>13,25%</t>
   </si>
   <si>
-    <t>38,52%</t>
+    <t>39,36%</t>
   </si>
   <si>
     <t>77,11%</t>
@@ -471,88 +471,76 @@
     <t>50,03%</t>
   </si>
   <si>
-    <t>82,92%</t>
-  </si>
-  <si>
     <t>71,98%</t>
   </si>
   <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
   </si>
   <si>
     <t>78,75%</t>
   </si>
   <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
   </si>
   <si>
     <t>28,02%</t>
   </si>
   <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
   </si>
   <si>
     <t>21,25%</t>
   </si>
   <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
   </si>
   <si>
     <t>91,69%</t>
   </si>
   <si>
-    <t>62,38%</t>
+    <t>66,28%</t>
   </si>
   <si>
     <t>75,9%</t>
   </si>
   <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
   </si>
   <si>
     <t>8,31%</t>
   </si>
   <si>
-    <t>37,62%</t>
+    <t>33,72%</t>
   </si>
   <si>
     <t>24,1%</t>
   </si>
   <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
   </si>
 </sst>
 </file>
@@ -964,7 +952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C984818-2F66-42FB-93E8-C0C072057967}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADF4095-0041-47A3-97A6-2BC1FA5E209D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2033,7 +2021,7 @@
         <v>89</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="M22" s="7">
         <v>85</v>
@@ -2042,13 +2030,13 @@
         <v>89708</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2063,13 +2051,13 @@
         <v>959</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H23" s="7">
         <v>18</v>
@@ -2078,13 +2066,13 @@
         <v>20257</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M23" s="7">
         <v>19</v>
@@ -2093,13 +2081,13 @@
         <v>21216</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2155,7 +2143,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2177,7 +2165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412C81F9-7FC4-44B1-B087-7B4A85E8ACAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E257A15D-0B27-4E17-A9EF-9EB50ADBB28F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2194,7 +2182,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2319,7 +2307,7 @@
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>19</v>
@@ -2373,7 +2361,7 @@
         <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2471,13 +2459,13 @@
         <v>6038</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -2486,13 +2474,13 @@
         <v>7055</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2522,13 +2510,13 @@
         <v>4725</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -2537,13 +2525,13 @@
         <v>4725</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2626,13 +2614,13 @@
         <v>11364</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -2641,13 +2629,13 @@
         <v>11364</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,13 +2665,13 @@
         <v>2861</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -2692,7 +2680,7 @@
         <v>4448</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>126</v>
@@ -3079,7 +3067,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>19</v>
@@ -3091,13 +3079,13 @@
         <v>20837</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M19" s="7">
         <v>28</v>
@@ -3106,13 +3094,13 @@
         <v>30066</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,7 +3121,7 @@
         <v>21</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -3142,13 +3130,13 @@
         <v>8111</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -3157,13 +3145,13 @@
         <v>8111</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,10 +3219,10 @@
         <v>17509</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>14</v>
@@ -3246,13 +3234,13 @@
         <v>65940</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="M22" s="7">
         <v>80</v>
@@ -3261,13 +3249,13 @@
         <v>83449</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3282,13 +3270,13 @@
         <v>1587</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>19</v>
@@ -3297,13 +3285,13 @@
         <v>20934</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>20</v>
@@ -3312,13 +3300,13 @@
         <v>22521</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,7 +3362,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A17-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A17-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7CAC419-2659-4305-B2F7-F1C1270C2767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24A707AA-FF6D-4372-A536-75B0CA3BA975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D79C0A9C-C5F6-4544-B5AC-B673FE926780}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{58B704CE-3EDC-49D7-8867-FC0678F7CE81}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="174">
   <si>
     <t>Población que recibe medicación o terapia por anemia en 2012 (Tasa respuesta: 1,6%)</t>
   </si>
@@ -111,19 +111,19 @@
     <t>54,8%</t>
   </si>
   <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
   </si>
   <si>
     <t>50,38%</t>
   </si>
   <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -132,19 +132,19 @@
     <t>45,2%</t>
   </si>
   <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
   </si>
   <si>
     <t>49,62%</t>
   </si>
   <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -153,25 +153,25 @@
     <t>95,84%</t>
   </si>
   <si>
-    <t>82,95%</t>
+    <t>79,04%</t>
   </si>
   <si>
     <t>95,99%</t>
   </si>
   <si>
-    <t>80,8%</t>
+    <t>83,74%</t>
   </si>
   <si>
     <t>4,16%</t>
   </si>
   <si>
-    <t>17,05%</t>
+    <t>20,96%</t>
   </si>
   <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>19,2%</t>
+    <t>16,26%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -183,13 +183,13 @@
     <t>86,63%</t>
   </si>
   <si>
-    <t>58,47%</t>
+    <t>60,2%</t>
   </si>
   <si>
     <t>88,81%</t>
   </si>
   <si>
-    <t>66,26%</t>
+    <t>66,38%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -198,13 +198,13 @@
     <t>13,37%</t>
   </si>
   <si>
-    <t>41,53%</t>
+    <t>39,8%</t>
   </si>
   <si>
     <t>11,19%</t>
   </si>
   <si>
-    <t>33,74%</t>
+    <t>33,62%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -216,19 +216,19 @@
     <t>73,84%</t>
   </si>
   <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
   </si>
   <si>
     <t>77,71%</t>
   </si>
   <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -237,19 +237,19 @@
     <t>26,16%</t>
   </si>
   <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
   </si>
   <si>
     <t>22,29%</t>
   </si>
   <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -261,19 +261,19 @@
     <t>68,71%</t>
   </si>
   <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
   </si>
   <si>
     <t>76,22%</t>
   </si>
   <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -282,265 +282,283 @@
     <t>31,29%</t>
   </si>
   <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
   </si>
   <si>
     <t>23,78%</t>
   </si>
   <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
   </si>
   <si>
     <t>93,74%</t>
   </si>
   <si>
-    <t>74,33%</t>
+    <t>73,93%</t>
   </si>
   <si>
     <t>78,81%</t>
   </si>
   <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
   </si>
   <si>
     <t>80,87%</t>
   </si>
   <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por anemia en 2016 (Tasa respuesta: 1,52%)</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
     <t>71,87%</t>
   </si>
   <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
   </si>
   <si>
     <t>28,13%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por anemia en 2015 (Tasa respuesta: 1,52%)</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
   </si>
   <si>
     <t>82,92%</t>
   </si>
   <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
   </si>
   <si>
     <t>17,08%</t>
   </si>
   <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
     <t>28,02%</t>
   </si>
   <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
   </si>
   <si>
     <t>21,25%</t>
   </si>
   <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
   </si>
   <si>
     <t>91,69%</t>
   </si>
   <si>
-    <t>66,28%</t>
+    <t>61,88%</t>
   </si>
   <si>
     <t>75,9%</t>
   </si>
   <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
   </si>
   <si>
     <t>8,31%</t>
   </si>
   <si>
-    <t>33,72%</t>
+    <t>38,12%</t>
   </si>
   <si>
     <t>24,1%</t>
   </si>
   <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
   </si>
 </sst>
 </file>
@@ -952,7 +970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADF4095-0041-47A3-97A6-2BC1FA5E209D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3E11EC-38B0-4212-B63D-155B66D80A5A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2165,7 +2183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E257A15D-0B27-4E17-A9EF-9EB50ADBB28F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D359E21E-DC5C-4830-A1B3-86AA1838EF9B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2629,13 +2647,13 @@
         <v>11364</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,13 +2683,13 @@
         <v>2861</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -2680,13 +2698,13 @@
         <v>4448</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,10 +2787,10 @@
         <v>12089</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>14</v>
@@ -2784,10 +2802,10 @@
         <v>15173</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>14</v>
@@ -2820,13 +2838,13 @@
         <v>2317</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -2835,13 +2853,13 @@
         <v>2317</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,10 +2942,10 @@
         <v>9836</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>14</v>
@@ -2939,10 +2957,10 @@
         <v>11968</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>14</v>
@@ -2975,13 +2993,13 @@
         <v>2920</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -2990,13 +3008,13 @@
         <v>2920</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,7 +3085,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>19</v>
@@ -3079,13 +3097,13 @@
         <v>20837</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M19" s="7">
         <v>28</v>
@@ -3094,13 +3112,13 @@
         <v>30066</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,7 +3139,7 @@
         <v>21</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -3130,13 +3148,13 @@
         <v>8111</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -3145,13 +3163,13 @@
         <v>8111</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3219,10 +3237,10 @@
         <v>17509</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>14</v>
@@ -3234,13 +3252,13 @@
         <v>65940</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="M22" s="7">
         <v>80</v>
@@ -3249,13 +3267,13 @@
         <v>83449</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3270,13 +3288,13 @@
         <v>1587</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="H23" s="7">
         <v>19</v>
@@ -3285,13 +3303,13 @@
         <v>20934</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M23" s="7">
         <v>20</v>
@@ -3300,13 +3318,13 @@
         <v>22521</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
